--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2606.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2606.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7906045903029877</v>
+        <v>1.363110780715942</v>
       </c>
       <c r="B1">
-        <v>1.540527446682289</v>
+        <v>2.153929233551025</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.866361141204834</v>
       </c>
       <c r="D1">
-        <v>1.843129642723484</v>
+        <v>3.454369068145752</v>
       </c>
       <c r="E1">
-        <v>0.9262674585019987</v>
+        <v>1.266086101531982</v>
       </c>
     </row>
   </sheetData>
